--- a/Research-log.xlsx
+++ b/Research-log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galax\Downloads\codes\3390 (App Dev)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F6505-982D-4AD2-99A6-25BD6D7BD36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C63619-A0C9-42D0-BDD2-8C509E705F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Code language</t>
   </si>
@@ -97,18 +97,6 @@
     <t>https://developer.mozilla.org/en-US/docs/Learn_web_development/Core/Frameworks_libraries/Vue_getting_started</t>
   </si>
   <si>
-    <t>https://vuejs.org/guide/quick-start.html</t>
-  </si>
-  <si>
-    <t>https://tailwindcss.com/docs/installation</t>
-  </si>
-  <si>
-    <t>https://tailwindcss.com/docs/utility-first</t>
-  </si>
-  <si>
-    <t>https://tailwindcss.com/docs/guides/vite</t>
-  </si>
-  <si>
     <t>https://www.freecodecamp.org/news/what-is-tailwind-css-a-beginners-guide/</t>
   </si>
   <si>
@@ -157,18 +145,6 @@
     <t>MDN getting started with Vue, including setup and first app.</t>
   </si>
   <si>
-    <t>Vue quick start with Vite and single-file components.</t>
-  </si>
-  <si>
-    <t>Official Tailwind installation guide (including Vite, PostCSS).</t>
-  </si>
-  <si>
-    <t>Explains Tailwind’s utility-first approach and how to style in markup.</t>
-  </si>
-  <si>
-    <t>Official guide: set up Tailwind in a Vite project (works great with React/Vue/Svelte).</t>
-  </si>
-  <si>
     <t>Beginner-friendly overview of Tailwind’s concepts and benefits.</t>
   </si>
   <si>
@@ -209,13 +185,37 @@
   </si>
   <si>
     <t>SvelteKit Introduction Course | Routes, Groups &amp; API Endpoints | Basic Lesson for Beginners</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript/Guide/Modules</t>
+  </si>
+  <si>
+    <t>guide gives you all you need to get started with JavaScript module syntax</t>
+  </si>
+  <si>
+    <t>sveltejs/svelte: web development for the rest of us</t>
+  </si>
+  <si>
+    <t>Svelte Github Repository with quick reference links</t>
+  </si>
+  <si>
+    <t>https://tailwindcss.com/docs</t>
+  </si>
+  <si>
+    <t>Official Tailwind documentation for free version</t>
+  </si>
+  <si>
+    <t>YouTube account that has multiple videos with guides and tutorials about Svelte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +247,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0F0F0F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,7 +298,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -301,6 +308,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,19 +618,19 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -646,13 +655,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -660,13 +672,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -674,13 +689,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -688,13 +706,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -702,245 +723,296 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.125E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.2916666666666665E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.2361111111111113E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.2916666666666665E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.25E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -950,22 +1022,23 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B13" r:id="rId21" xr:uid="{22551915-830B-4E7E-896E-08547E4AD8F0}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId18" xr:uid="{22551915-830B-4E7E-896E-08547E4AD8F0}"/>
+    <hyperlink ref="B7" r:id="rId19" xr:uid="{75134964-7B33-4F04-998F-5DC290C0B570}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://github.com/sveltejs/svelte" xr:uid="{2CE29931-6EE6-4EDA-8E17-3703C0E76D78}"/>
+    <hyperlink ref="B15" r:id="rId21" xr:uid="{4736F8A5-4833-49EB-84F1-A244434AB3B7}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://www.youtube.com/@SlateDevelopment" xr:uid="{BD269B73-61B1-4C17-9FDB-544723344BDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Research-log.xlsx
+++ b/Research-log.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galax\Downloads\codes\3390 (App Dev)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\galax\3390\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C63619-A0C9-42D0-BDD2-8C509E705F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0EE4E8-BDC1-465B-900C-88914454482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
+    <sheet name="Set-Up" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>Code language</t>
   </si>
@@ -209,22 +210,83 @@
   </si>
   <si>
     <t>YouTube account that has multiple videos with guides and tutorials about Svelte</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>nodeJs</t>
+  </si>
+  <si>
+    <t>https://nodejs.org/en/download</t>
+  </si>
+  <si>
+    <t>5mins</t>
+  </si>
+  <si>
+    <t>https://github.com/nvm-sh/nvm</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/downloads</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>2mins</t>
+  </si>
+  <si>
+    <t>Vscode</t>
+  </si>
+  <si>
+    <t>https://code.visualstudio.com/download</t>
+  </si>
+  <si>
+    <t>6mins</t>
+  </si>
+  <si>
+    <t>https://tailwindcss.com/docs/installation</t>
+  </si>
+  <si>
+    <t>3mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svelte - Setup </t>
+  </si>
+  <si>
+    <t>Getting started • Docs • Svelte</t>
+  </si>
+  <si>
+    <t>Drizzle</t>
+  </si>
+  <si>
+    <t>Drizzle ORM - Get started</t>
+  </si>
+  <si>
+    <t>Possible backend database</t>
+  </si>
+  <si>
+    <t>nvm (Node Version Manager) — recommended for Linux/WSL</t>
+  </si>
+  <si>
+    <t>mdsvex - markdown in svelte!</t>
+  </si>
+  <si>
+    <t>Markdown + svelte: be able to use markdown in Svelte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -240,34 +302,73 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF131313"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0F0F0F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -276,46 +377,161 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -326,6 +542,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84841BD3-8172-431A-AF11-7D9BF884CEC1}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:E25" xr:uid="{84841BD3-8172-431A-AF11-7D9BF884CEC1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9607D6CF-17AE-4808-A603-3AE00F2E33AE}" name="Code language" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D1C02F2D-D359-4C4A-B895-D0665AC6FA3B}" name="Link" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{14C0F20F-0CC8-4459-AA83-65C7127623B2}" name="Short description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3006793A-6D13-4348-8D8A-97CDA86A166E}" name="Time (hr:mins)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{904DBFF0-8066-4FB9-BB18-A50B1D6646C4}" name="Keywords" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCA1BB41-5DF6-4315-A71C-DFD2E937FC0E}" name="Table4" displayName="Table4" ref="A1:C1048576" totalsRowShown="0" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:C1048576" xr:uid="{DCA1BB41-5DF6-4315-A71C-DFD2E937FC0E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{32CFB526-1AD4-40CA-AFCC-10273EC789BF}" name="Resource"/>
+    <tableColumn id="2" xr3:uid="{AFE3BFF3-79A0-40E9-8357-E7376399304A}" name="Setup"/>
+    <tableColumn id="3" xr3:uid="{9A238B12-DB08-4888-A79A-188DB4D38E78}" name="Time"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,404 +857,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3.125E-2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2.2916666666666665E-2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>4.2361111111111113E-2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>2.2916666666666665E-2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1315,119 @@
     <hyperlink ref="B22" r:id="rId20" display="https://github.com/sveltejs/svelte" xr:uid="{2CE29931-6EE6-4EDA-8E17-3703C0E76D78}"/>
     <hyperlink ref="B15" r:id="rId21" xr:uid="{4736F8A5-4833-49EB-84F1-A244434AB3B7}"/>
     <hyperlink ref="B23" r:id="rId22" display="https://www.youtube.com/@SlateDevelopment" xr:uid="{BD269B73-61B1-4C17-9FDB-544723344BDE}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://orm.drizzle.team/docs/get-started" xr:uid="{CC7342E3-1087-466C-9BB5-D4E6DEE07339}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://mdsvex.pngwn.io/" xr:uid="{4CCFDA00-7B08-48AF-B7DC-B51C0EDBD9D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <tableParts count="1">
+    <tablePart r:id="rId26"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF26545-9C9C-49B7-94FA-60AEC7551F52}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D198EF9C-D068-49C0-9247-6D2AF7ACEC3E}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{F7D5EA83-9E95-4412-A59C-4B77E9E908CF}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{86E76E7E-939E-4302-A6DD-EE0725CB2377}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{E15E211F-6136-4528-A46C-CE00CB42D9C3}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{17D94286-E8B1-48D9-B66C-D0C0A5F61750}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://svelte.dev/docs/svelte/getting-started" xr:uid="{C9641E29-0B74-4DB9-AB80-0C8BE1BB902B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>